--- a/spliced/walkingToRunning/2023-03-26_18-54-27/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-26_18-54-27/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.5408239364624</v>
+        <v>7.345117568969727</v>
       </c>
       <c r="D2" t="n">
-        <v>2.647232055664062</v>
+        <v>-12.58289909362793</v>
       </c>
       <c r="E2" t="n">
-        <v>14.10661315917969</v>
+        <v>3.90805721282959</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.19702434539795</v>
+        <v>-0.06342706156940325</v>
       </c>
       <c r="G2" t="n">
-        <v>1.756288290023804</v>
+        <v>0.2977593003249712</v>
       </c>
       <c r="H2" t="n">
-        <v>2.010953009128571</v>
+        <v>0.5447398664020925</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-6.684710502624512</v>
+        <v>10.5408239364624</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.58095169067383</v>
+        <v>2.647232055664062</v>
       </c>
       <c r="E3" t="n">
-        <v>-20.94781112670898</v>
+        <v>14.10661315917969</v>
       </c>
       <c r="F3" t="n">
-        <v>1.257760638143962</v>
+        <v>-1.19702434539795</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1820772450144785</v>
+        <v>1.756288290023804</v>
       </c>
       <c r="H3" t="n">
-        <v>-2.106898115902421</v>
+        <v>2.010953009128571</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-9.718008995056152</v>
+        <v>-6.684710502624512</v>
       </c>
       <c r="D4" t="n">
-        <v>-12.06524276733398</v>
+        <v>-10.58095169067383</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.092952013015747</v>
+        <v>-20.94781112670898</v>
       </c>
       <c r="F4" t="n">
-        <v>2.003179427872321</v>
+        <v>1.257760638143962</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.029003118596394</v>
+        <v>-0.1820772450144785</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.035639041807577</v>
+        <v>-2.106898115902421</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.974858283996582</v>
+        <v>-9.718008995056152</v>
       </c>
       <c r="D5" t="n">
-        <v>-11.37698841094971</v>
+        <v>-12.06524276733398</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3084669113159179</v>
+        <v>-0.092952013015747</v>
       </c>
       <c r="F5" t="n">
-        <v>1.663756308759156</v>
+        <v>2.003179427872321</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09051663155962358</v>
+        <v>-3.029003118596394</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.346439961979992</v>
+        <v>-6.035639041807577</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-13.79527282714844</v>
+        <v>-2.974858283996582</v>
       </c>
       <c r="D6" t="n">
-        <v>-39.99485778808594</v>
+        <v>-11.37698841094971</v>
       </c>
       <c r="E6" t="n">
-        <v>1.296123027801514</v>
+        <v>0.3084669113159179</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4272669495606185</v>
+        <v>1.663756308759156</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4076309111423626</v>
+        <v>-0.09051663155962358</v>
       </c>
       <c r="H6" t="n">
-        <v>2.549625923720821</v>
+        <v>-2.346439961979992</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8157472610473633</v>
+        <v>-13.79527282714844</v>
       </c>
       <c r="D7" t="n">
-        <v>-14.87919425964356</v>
+        <v>-39.99485778808594</v>
       </c>
       <c r="E7" t="n">
-        <v>10.64366054534912</v>
+        <v>1.296123027801514</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.007111654049011</v>
+        <v>-0.4272669495606185</v>
       </c>
       <c r="G7" t="n">
-        <v>2.933262512451288</v>
+        <v>0.4076309111423626</v>
       </c>
       <c r="H7" t="n">
-        <v>6.187744315077628</v>
+        <v>2.549625923720821</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.28074264526367</v>
+        <v>0.8157472610473633</v>
       </c>
       <c r="D8" t="n">
-        <v>-82.66264343261719</v>
+        <v>-14.87919425964356</v>
       </c>
       <c r="E8" t="n">
-        <v>18.65274810791016</v>
+        <v>10.64366054534912</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8147307605277296</v>
+        <v>-5.007111654049011</v>
       </c>
       <c r="G8" t="n">
-        <v>2.59154647297968</v>
+        <v>2.933262512451288</v>
       </c>
       <c r="H8" t="n">
-        <v>3.190694384458493</v>
+        <v>6.187744315077628</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-67.10326385498047</v>
+        <v>21.28074264526367</v>
       </c>
       <c r="D9" t="n">
-        <v>36.21846008300781</v>
+        <v>-82.66264343261719</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.591421127319336</v>
+        <v>18.65274810791016</v>
       </c>
       <c r="F9" t="n">
-        <v>4.642261807511497</v>
+        <v>-0.8147307605277296</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.687124653560384</v>
+        <v>2.59154647297968</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.055825431172487</v>
+        <v>3.190694384458493</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-4.748800754547119</v>
+        <v>-67.10326385498047</v>
       </c>
       <c r="D10" t="n">
-        <v>-14.3919506072998</v>
+        <v>36.21846008300781</v>
       </c>
       <c r="E10" t="n">
-        <v>4.991169929504395</v>
+        <v>-4.591421127319336</v>
       </c>
       <c r="F10" t="n">
-        <v>3.307725646146919</v>
+        <v>4.642261807511497</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.475619191076696</v>
+        <v>-2.687124653560384</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.178602584978427</v>
+        <v>-4.055825431172487</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-13.24984931945801</v>
+        <v>-4.748800754547119</v>
       </c>
       <c r="D11" t="n">
-        <v>-18.9327278137207</v>
+        <v>-14.3919506072998</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.615734577178955</v>
+        <v>4.991169929504395</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.5536176257017136</v>
+        <v>3.307725646146919</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.48860380126209</v>
+        <v>-4.475619191076696</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.862921412398188</v>
+        <v>-7.178602584978427</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>31.57485389709473</v>
+        <v>-13.24984931945801</v>
       </c>
       <c r="D12" t="n">
-        <v>-14.13540840148926</v>
+        <v>-18.9327278137207</v>
       </c>
       <c r="E12" t="n">
-        <v>37.62393188476562</v>
+        <v>-1.615734577178955</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.221588652308443</v>
+        <v>-0.5536176257017136</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.411513553886869</v>
+        <v>-4.48860380126209</v>
       </c>
       <c r="H12" t="n">
-        <v>2.527892092379122</v>
+        <v>-3.862921412398188</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-3.522989749908448</v>
+        <v>31.57485389709473</v>
       </c>
       <c r="D13" t="n">
-        <v>-10.15239906311035</v>
+        <v>-14.13540840148926</v>
       </c>
       <c r="E13" t="n">
-        <v>17.25504112243652</v>
+        <v>37.62393188476562</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.599334018986253</v>
+        <v>-7.221588652308443</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.780423902883811</v>
+        <v>-2.411513553886869</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.090038404232164</v>
+        <v>2.527892092379122</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.178001403808594</v>
+        <v>-3.522989749908448</v>
       </c>
       <c r="D14" t="n">
-        <v>-24.92928695678711</v>
+        <v>-10.15239906311035</v>
       </c>
       <c r="E14" t="n">
-        <v>8.257000923156738</v>
+        <v>17.25504112243652</v>
       </c>
       <c r="F14" t="n">
-        <v>6.376622484951461</v>
+        <v>-5.599334018986253</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.650588244926631</v>
+        <v>-3.780423902883811</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.948861485574298</v>
+        <v>-1.090038404232164</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-5.383133888244629</v>
+        <v>8.178001403808594</v>
       </c>
       <c r="D15" t="n">
-        <v>1.152879953384399</v>
+        <v>-24.92928695678711</v>
       </c>
       <c r="E15" t="n">
-        <v>1.30066442489624</v>
+        <v>8.257000923156738</v>
       </c>
       <c r="F15" t="n">
-        <v>2.869635640121101</v>
+        <v>6.376622484951461</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.935632589386703</v>
+        <v>-7.650588244926631</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.603090690403443</v>
+        <v>-4.948861485574298</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-21.55855941772461</v>
+        <v>-5.383133888244629</v>
       </c>
       <c r="D16" t="n">
-        <v>-18.73270034790039</v>
+        <v>1.152879953384399</v>
       </c>
       <c r="E16" t="n">
-        <v>-9.058673858642578</v>
+        <v>1.30066442489624</v>
       </c>
       <c r="F16" t="n">
-        <v>2.96556776325869</v>
+        <v>2.869635640121101</v>
       </c>
       <c r="G16" t="n">
-        <v>3.462880915984825</v>
+        <v>-1.935632589386703</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1149900999010921</v>
+        <v>-2.603090690403443</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.207836627960205</v>
+        <v>-21.55855941772461</v>
       </c>
       <c r="D17" t="n">
-        <v>-60.38365173339844</v>
+        <v>-18.73270034790039</v>
       </c>
       <c r="E17" t="n">
-        <v>21.30802917480469</v>
+        <v>-9.058673858642578</v>
       </c>
       <c r="F17" t="n">
-        <v>-4.452823406312537</v>
+        <v>2.96556776325869</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1738118369405208</v>
+        <v>3.462880915984825</v>
       </c>
       <c r="H17" t="n">
-        <v>2.291137044022761</v>
+        <v>-0.1149900999010921</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-7.397396087646484</v>
+        <v>4.207836627960205</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.57304859161377</v>
+        <v>-60.38365173339844</v>
       </c>
       <c r="E18" t="n">
-        <v>8.563810348510742</v>
+        <v>21.30802917480469</v>
       </c>
       <c r="F18" t="n">
-        <v>-4.949691057205192</v>
+        <v>-4.452823406312537</v>
       </c>
       <c r="G18" t="n">
-        <v>5.274479982329643</v>
+        <v>0.1738118369405208</v>
       </c>
       <c r="H18" t="n">
-        <v>2.80145074390779</v>
+        <v>2.291137044022761</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16.9281063079834</v>
+        <v>-7.397396087646484</v>
       </c>
       <c r="D19" t="n">
-        <v>-77.95144653320312</v>
+        <v>-7.57304859161377</v>
       </c>
       <c r="E19" t="n">
-        <v>60.47911071777344</v>
+        <v>8.563810348510742</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.519368160061688</v>
+        <v>-4.949691057205192</v>
       </c>
       <c r="G19" t="n">
-        <v>9.493784741657493</v>
+        <v>5.274479982329643</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.797140115644872</v>
+        <v>2.80145074390779</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-18.38624954223633</v>
+        <v>16.9281063079834</v>
       </c>
       <c r="D20" t="n">
-        <v>4.694716930389404</v>
+        <v>-77.95144653320312</v>
       </c>
       <c r="E20" t="n">
-        <v>-15.62700939178467</v>
+        <v>60.47911071777344</v>
       </c>
       <c r="F20" t="n">
-        <v>1.409833646402128</v>
+        <v>-2.519368160061688</v>
       </c>
       <c r="G20" t="n">
-        <v>1.814598339359917</v>
+        <v>9.493784741657493</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.559189867682572</v>
+        <v>-1.797140115644872</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-18.38624954223633</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4.694716930389404</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-15.62700939178467</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.409833646402128</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.814598339359917</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-1.559189867682572</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>36.83388900756836</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>-10.96193885803223</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>0.4498906135559082</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>2.461990158732359</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>-6.157769249706776</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>-2.199485290341278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.928971290588379</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-17.86810111999512</v>
+      </c>
+      <c r="E23" t="n">
+        <v>8.281005859375</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.753937654378926</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-9.407423193861781</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-3.08937735819234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-14.49608421325684</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-1.527808666229248</v>
+      </c>
+      <c r="E24" t="n">
+        <v>44.4189453125</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-4.065274791019721</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-1.80112353185328</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.134828872796967</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-12.06443023681641</v>
+      </c>
+      <c r="D25" t="n">
+        <v>6.844409942626953</v>
+      </c>
+      <c r="E25" t="n">
+        <v>19.9449577331543</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-7.774596919373714</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.037927262666848</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.593074496199395</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>6.954762935638428</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-76.15243530273438</v>
+      </c>
+      <c r="E26" t="n">
+        <v>24.18494606018066</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1093276535592701</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10.26185343905173</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-3.281300154764442</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>6.384909629821777</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.00542688369751</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-29.23712921142578</v>
+      </c>
+      <c r="F27" t="n">
+        <v>3.391102220953991</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-5.063158106513092</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1.229867340406294</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-34.79932403564453</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-7.816071510314941</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.089200496673584</v>
+      </c>
+      <c r="F28" t="n">
+        <v>6.242717754550078</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.2678701499613687</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-4.157948156682439</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-17.0820198059082</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-31.8654670715332</v>
+      </c>
+      <c r="E29" t="n">
+        <v>12.90904235839844</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.95433324720798</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-6.421389656095905</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.3005734565781801</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2.159783363342285</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.4922776222229004</v>
+      </c>
+      <c r="E30" t="n">
+        <v>7.778494358062744</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-2.448658175584859</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-1.071053583447552</v>
+      </c>
+      <c r="H30" t="n">
+        <v>4.803342400527646</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3.85674524307251</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.991205930709839</v>
+      </c>
+      <c r="E31" t="n">
+        <v>21.4826774597168</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-7.789634487977738</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.2244347770038115</v>
+      </c>
+      <c r="H31" t="n">
+        <v>7.027555852401433</v>
       </c>
     </row>
   </sheetData>
